--- a/Retreat_Fire_2024/site_selection/Scouting/Oak_Creek_tribs_scouting.xlsx
+++ b/Retreat_Fire_2024/site_selection/Scouting/Oak_Creek_tribs_scouting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-fire-watch/Retreat_Fire_2024/site_selection/Scouting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD0E07C-752C-154F-8BC6-76F40CA8B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D594B-10D8-764D-82CF-1C5FBCD0EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="760" windowWidth="27640" windowHeight="16700" xr2:uid="{E8F89692-5212-0240-9481-0B9728A709FA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E8F89692-5212-0240-9481-0B9728A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Oak_Creek_tribs_scouting" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>site</t>
   </si>
@@ -99,13 +99,16 @@
   </si>
   <si>
     <t>Moderate_Low</t>
+  </si>
+  <si>
+    <t></t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +118,23 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color rgb="FF1A73E8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Google Symbols"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF1A73E8"/>
       <name val="Arial"/>
@@ -141,9 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D8F72B-54BC-9646-8A99-4032849CCFAB}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -492,7 +515,7 @@
     <col min="9" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,15 +550,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46.729877999999999</v>
+        <v>46.729033999999999</v>
       </c>
       <c r="C2">
-        <v>-120.851257</v>
+        <v>-120.850735</v>
       </c>
       <c r="E2">
         <v>24424741</v>
@@ -556,15 +579,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>46.731318000000002</v>
+        <v>46.730728999999997</v>
       </c>
       <c r="C3">
-        <v>-120.861048</v>
+        <v>-120.861149</v>
       </c>
       <c r="E3">
         <v>24424729</v>
@@ -585,15 +608,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>46.73254</v>
+        <v>46.731386000000001</v>
       </c>
       <c r="C4">
-        <v>-120.87936000000001</v>
+        <v>-120.87894</v>
       </c>
       <c r="E4">
         <v>24424727</v>
@@ -613,16 +636,17 @@
       <c r="J4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>46.737779000000003</v>
+        <v>46.735142000000003</v>
       </c>
       <c r="C5">
-        <v>-120.907821</v>
+        <v>-120.907946</v>
       </c>
       <c r="E5">
         <v>24424705</v>
@@ -642,16 +666,17 @@
       <c r="J5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="23">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46.738840000000003</v>
+        <v>46.73563</v>
       </c>
       <c r="C6">
-        <v>-120.926922</v>
+        <v>-120.923647</v>
       </c>
       <c r="E6">
         <v>24424703</v>
@@ -671,16 +696,19 @@
       <c r="J6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>46.729807000000001</v>
+        <v>46.730606999999999</v>
       </c>
       <c r="C7">
-        <v>-120.950459</v>
+        <v>-120.949185</v>
       </c>
       <c r="E7">
         <v>24424717</v>
@@ -701,15 +729,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="23">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>46.725326000000003</v>
+        <v>46.725380000000001</v>
       </c>
       <c r="C8">
-        <v>-120.94154</v>
+        <v>-120.941457</v>
       </c>
       <c r="E8">
         <v>24424753</v>
@@ -729,8 +757,19 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="23">
+      <c r="N10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="F16" s="1"/>
     </row>
   </sheetData>

--- a/Retreat_Fire_2024/site_selection/Scouting/Oak_Creek_tribs_scouting.xlsx
+++ b/Retreat_Fire_2024/site_selection/Scouting/Oak_Creek_tribs_scouting.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-fire-watch/Retreat_Fire_2024/site_selection/Scouting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D594B-10D8-764D-82CF-1C5FBCD0EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50674A39-7FE9-DB4B-AC19-F98DC76255CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E8F89692-5212-0240-9481-0B9728A709FA}"/>
+    <workbookView xWindow="2400" yWindow="760" windowWidth="27640" windowHeight="16700" xr2:uid="{85AC571D-2E06-E24B-B89D-6D42C9761D53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oak_Creek_tribs_scouting" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>site</t>
   </si>
@@ -59,21 +59,42 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Burn_Influence</t>
+  </si>
+  <si>
+    <t>mean_dnbr</t>
+  </si>
+  <si>
+    <t>Burn_Severity</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Burn_Influence</t>
+    <t>unnamed_1</t>
   </si>
   <si>
     <t>Within perimeter</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Intermittent?</t>
+  </si>
+  <si>
+    <t>unnamed_2</t>
+  </si>
+  <si>
     <t>Clint Canyon</t>
   </si>
   <si>
     <t>Pine Tree Canyon</t>
   </si>
   <si>
+    <t>Moderate_Low</t>
+  </si>
+  <si>
     <t>Hoover Canyon</t>
   </si>
   <si>
@@ -87,58 +108,19 @@
   </si>
   <si>
     <t>South Fork Oak Creek</t>
-  </si>
-  <si>
-    <t>Burn_Severity</t>
-  </si>
-  <si>
-    <t>mean_dnbr</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Moderate_Low</t>
-  </si>
-  <si>
-    <t></t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF1A73E8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Google Symbols"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1A73E8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,12 +143,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,22 +478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D8F72B-54BC-9646-8A99-4032849CCFAB}">
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320BFC04-7592-C549-A67A-9F947C0250B4}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,239 +510,284 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46.729033999999999</v>
+        <v>46.730977000000003</v>
       </c>
       <c r="C2">
-        <v>-120.850735</v>
+        <v>-120.835576</v>
       </c>
       <c r="E2">
-        <v>24424741</v>
+        <v>24424737</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>207.20497131347599</v>
+        <v>244.7486877</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>46.730728999999997</v>
+        <v>46.730350999999999</v>
       </c>
       <c r="C3">
-        <v>-120.861149</v>
+        <v>-120.846344</v>
       </c>
       <c r="E3">
-        <v>24424729</v>
+        <v>24424739</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>279.89987182617102</v>
+        <v>194.66950990000001</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>46.731386000000001</v>
+        <v>46.729033999999999</v>
       </c>
       <c r="C4">
-        <v>-120.87894</v>
+        <v>-120.850735</v>
       </c>
       <c r="E4">
-        <v>24424727</v>
+        <v>24424741</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>276.111724853515</v>
+        <v>207.20497130000001</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>46.735142000000003</v>
+        <v>46.730728999999997</v>
       </c>
       <c r="C5">
-        <v>-120.907946</v>
+        <v>-120.861149</v>
       </c>
       <c r="E5">
-        <v>24424705</v>
+        <v>24424729</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>256.12057495117102</v>
+        <v>279.89987180000003</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46.73563</v>
+        <v>46.731386000000001</v>
       </c>
       <c r="C6">
-        <v>-120.923647</v>
+        <v>-120.87894</v>
       </c>
       <c r="E6">
-        <v>24424703</v>
+        <v>24424727</v>
       </c>
       <c r="F6">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>344.73791503906199</v>
+        <v>276.11172490000001</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>46.730606999999999</v>
+        <v>46.735142000000003</v>
       </c>
       <c r="C7">
-        <v>-120.949185</v>
+        <v>-120.907946</v>
       </c>
       <c r="E7">
-        <v>24424717</v>
+        <v>24424705</v>
       </c>
       <c r="F7">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>320.44140625</v>
+        <v>256.12057499999997</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>46.73563</v>
+      </c>
+      <c r="C8">
+        <v>-120.923647</v>
+      </c>
+      <c r="E8">
+        <v>24424703</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>344.73791499999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>46.730606999999999</v>
+      </c>
+      <c r="C9">
+        <v>-120.949185</v>
+      </c>
+      <c r="E9">
+        <v>24424717</v>
+      </c>
+      <c r="F9">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>320.44140629999998</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>46.725380000000001</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>-120.941457</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>24424753</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>295.40396118164</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18">
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="23">
-      <c r="N10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="F16" s="1"/>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>295.40396120000003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
